--- a/biology/Médecine/Capacité_de_médecine/Capacité_de_médecine.xlsx
+++ b/biology/Médecine/Capacité_de_médecine/Capacité_de_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_de_m%C3%A9decine</t>
+          <t>Capacité_de_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la capacité de médecine est un diplôme réservé aux docteurs en médecine (généralistes ou spécialistes), leur conférant certaines compétences supplémentaires dans leur exercice, ou un champ d'exercice plus large. Les capacités ne confèrent pas la qualification de spécialiste auprès de l'Ordre des médecins, mais celui-ci les reconnait comme des titres auxquels peuvent prétendre les médecins (par exemple sur leur plaque) pour justifier de compétences supplémentaires auprès de leurs patients.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_de_m%C3%A9decine</t>
+          <t>Capacité_de_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'admission dans une capacité est conditionnée à la réussite d'un examen d'admission portant sur un programme spécifique à chaque capacité, par exemple un ou des modules enseignés pendant le deuxième cycle des études médicales.
 Les capacités sont obtenues en un ou deux ans, après un enseignement théorique (validé par des examens) et pratique (stages).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_de_m%C3%A9decine</t>
+          <t>Capacité_de_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Liste des capacités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Capacité de médecine d'urgence (2 ans)
 Capacité d'allergologie (2 ans)
